--- a/data/processed/processed_yahoo_news_sentiment.xlsx
+++ b/data/processed/processed_yahoo_news_sentiment.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G41"/>
+  <dimension ref="A1:G50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,24 +476,24 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45997</v>
+        <v>46001</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>45997.00069444445</v>
+        <v>46001.77383101852</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Review &amp; Preview: Netflix Goes for Legacy</t>
+          <t>Stock Market Today: Dow Rises As Fed, Powell Loom; Palantir Gains (Live Coverage)</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>https://finance.yahoo.com/m/15a2489d-d489-3b0a-8f04-45734de3a1a9/review-%26-preview%3A-netflix.html</t>
+          <t>https://finance.yahoo.com/m/d2a83895-3dec-3c32-978d-30d95c7a44de/stock-market-today%3A-dow-rises.html</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Barrons.com</t>
+          <t>Investor's Business Daily</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -502,29 +502,29 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>0.128</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45996</v>
+        <v>46001</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>45996.99583333333</v>
+        <v>46001.77083333334</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Get Your Santa Claus Rally Caps On. Then Prepare for a Comedown.</t>
+          <t>Private markets: Thinking outside the traditional 60/40 portfolio</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>https://finance.yahoo.com/m/0bf0a473-d025-3a3c-b693-09fd16cba57b/get-your-santa-claus-rally.html</t>
+          <t>https://finance.yahoo.com/video/private-markets-thinking-outside-traditional-183000929.html</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Barrons.com</t>
+          <t>Yahoo Finance Video</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -533,29 +533,29 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>-0.2023</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45996</v>
+        <v>46001</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>45996.97332175926</v>
+        <v>46001.76931712963</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Wall Street notches slight gains, Fed rate cut expectations on track</t>
+          <t>Stock market today: Dow, S&amp;P 500, Nasdaq diverge with Fed rate decision on deck</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>https://finance.yahoo.com/video/wall-street-notches-slight-gains-232135855.html</t>
+          <t>https://finance.yahoo.com/news/live/stock-market-today-dow-sp-500-nasdaq-diverge-with-fed-rate-decision-on-deck-235110803.html</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Reuters Videos</t>
+          <t>Yahoo Finance</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -564,29 +564,29 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>0.0018</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45996</v>
+        <v>46001</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>45996.96877314815</v>
+        <v>46001.75576388889</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Shell (SHEL) Stock Sinks As Market Gains: Here's Why</t>
+          <t>Exchange-Traded Funds Climb as US Equities Mixed After Midday</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>https://finance.yahoo.com/news/shell-shel-stock-sinks-market-231502234.html</t>
+          <t>https://finance.yahoo.com/news/exchange-traded-funds-climb-us-180818818.html</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Zacks</t>
+          <t>MT Newswires</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -595,29 +595,29 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>0.34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45996</v>
+        <v>46001</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>45996.96877314815</v>
+        <v>46001.73265046296</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Sirius XM (SIRI) Exceeds Market Returns: Some Facts to Consider</t>
+          <t>US Equity Indexes Trade Mixed Ahead of Anticipated Divisions in Fed Policy</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>https://finance.yahoo.com/news/sirius-xm-siri-exceeds-market-231502110.html</t>
+          <t>https://finance.yahoo.com/news/us-equity-indexes-trade-mixed-173501076.html</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Zacks</t>
+          <t>MT Newswires</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -631,24 +631,24 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45996</v>
+        <v>46001</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>45996.95835648148</v>
+        <v>46001.71746527778</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Uranium Energy (UEC) Stock Sinks As Market Gains: What You Should Know</t>
+          <t>Stocks mark time ahead of Fed decision</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>https://finance.yahoo.com/news/uranium-energy-uec-stock-sinks-230002437.html</t>
+          <t>https://finance.yahoo.com/news/asian-stocks-retreat-traders-eye-025020585.html</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Zacks</t>
+          <t>AFP</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -657,29 +657,29 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>0.5423</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45996</v>
+        <v>46001</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>45996.9497337963</v>
+        <v>46001.71572916667</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Dow Jones Futures: Bullish Trend Intact With AI Giants, Fed Ahead; Tesla Leads 5 Stocks In Buy Areas</t>
+          <t>Talk of an AI bubble is just 'ridiculous,' this strategist says</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>https://finance.yahoo.com/m/23257c5e-c487-35e2-8a1f-3fbf3ae06be7/dow-jones-futures%3A-bullish.html</t>
+          <t>https://finance.yahoo.com/video/talk-ai-bubble-just-ridiculous-171039241.html</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Investor's Business Daily</t>
+          <t>Yahoo Finance Video</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -688,29 +688,29 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>0.2023</v>
+        <v>-0.3612</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45996</v>
+        <v>46001</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>45996.94796296296</v>
+        <v>46001.6916087963</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Visa (V) Laps the Stock Market: Here's Why</t>
+          <t>Top Midday Stories: DeepSeek Said to Be Using Smuggled Nvidia Chips; Meta Pivoting Toward Money-Making AI Model Over Open Source</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>https://finance.yahoo.com/news/visa-v-laps-stock-market-224504364.html</t>
+          <t>https://finance.yahoo.com/news/top-midday-stories-deepseek-said-163555839.html</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Zacks</t>
+          <t>MT Newswires</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -719,24 +719,24 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>-0.1779</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45996</v>
+        <v>46001</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>45996.94795138889</v>
+        <v>46001.66736111111</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Why General Motors (GM) Outpaced the Stock Market Today</t>
+          <t>Markets Brace for a Hawkish Fed</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>https://finance.yahoo.com/news/why-general-motors-gm-outpaced-224503001.html</t>
+          <t>https://finance.yahoo.com/news/markets-brace-hawkish-fed-160100708.html</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -755,19 +755,19 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45996</v>
+        <v>46001</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>45996.94795138889</v>
+        <v>46001.64652777778</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Intel (INTC) Exceeds Market Returns: Some Facts to Consider</t>
+          <t>Pre-markets Remain "Wait &amp; See" Ahead of Fed Decision</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>https://finance.yahoo.com/news/intel-intc-exceeds-market-returns-224503246.html</t>
+          <t>https://finance.yahoo.com/news/pre-markets-remain-wait-see-153100353.html</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1096,24 +1096,24 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45997</v>
+        <v>46001</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>45997.27451388889</v>
+        <v>46001.77325231482</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>E.ON (ETR:EOAN) Is Doing The Right Things To Multiply Its Share Price</t>
+          <t>Trump says Nvidia can sell H200 chips to China, but nothing is guaranteed</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>https://finance.yahoo.com/news/e-etr-eoan-doing-things-063518558.html</t>
+          <t>https://finance.yahoo.com/news/trump-says-nvidia-can-sell-h200-chips-to-china-but-nothing-is-guaranteed-183329002.html</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Simply Wall St.</t>
+          <t>Yahoo Finance</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1122,29 +1122,29 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>0.296</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45997</v>
+        <v>46001</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>45997.27430555555</v>
+        <v>46001.77228009259</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Which Artificial Intelligence (AI) Stocks Are Billionaires Buying the Most?</t>
+          <t>BioNTech and BMS’ bispecific touts 59.3% nine-month PFS in TNBC</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>https://finance.yahoo.com/m/84e03577-a697-3a13-927f-10b69b1c5695/which-artificial-intelligence.html</t>
+          <t>https://finance.yahoo.com/m/aa32fe1c-edb1-320f-833b-809a5f77f186/biontech-and-bms%E2%80%99-bispecific.html</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Motley Fool</t>
+          <t>Clinical Trials Arena</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1153,29 +1153,29 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>0.4767</v>
+        <v>-0.0258</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45997</v>
+        <v>46001</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>45997.27373842592</v>
+        <v>46001.77152777778</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>We Think Shareholders Should Be Aware Of Some Factors Beyond Mantengu's (JSE:MTU) Profit</t>
+          <t>Totem Launches WeFunder Community Round to Scale Offline, Decentralized Friend-Finding Technology</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>https://finance.yahoo.com/news/think-shareholders-aware-factors-beyond-063411094.html</t>
+          <t>https://finance.yahoo.com/news/totem-launches-wefunder-community-round-183100370.html</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Simply Wall St.</t>
+          <t>Business Wire</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -1184,29 +1184,29 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>0.4404</v>
+        <v>-0.128</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45997</v>
+        <v>46001</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>45997.27083333334</v>
+        <v>46001.77084490741</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Columbia's popular winter boots are 50% off, and they're selling out fast</t>
+          <t>Betting markets predict Time's 2025 Person of the Year won't be a person at all</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>https://finance.yahoo.com/m/5d570d92-74e9-3516-ad0f-b8bbb2053f0d/columbia%27s-popular-winter.html</t>
+          <t>https://finance.yahoo.com/m/1c14bd52-3022-3610-b772-b21c516c708e/betting-markets-predict.html</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>TheStreet</t>
+          <t>Business Insider</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -1215,29 +1215,29 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>0.4215</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45997</v>
+        <v>46001</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>45997.26736111111</v>
+        <v>46001.77083333334</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>3 Reasons to Buy Amazon Stock Like There's No Tomorrow</t>
+          <t>New Podcast Discusses Strengthening Military Families With Innovation and Partnership</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>https://finance.yahoo.com/m/1d60a6cc-2bff-3f64-aae2-3dd9a22e883b/3-reasons-to-buy-amazon-stock.html</t>
+          <t>https://finance.yahoo.com/news/podcast-discusses-strengthening-military-families-183000468.html</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Motley Fool</t>
+          <t>ACCESS Newswire</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -1246,29 +1246,29 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>0.25</v>
+        <v>0.7003</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45997</v>
+        <v>46001</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>45997.26320601852</v>
+        <v>46001.77083333334</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Investors Will Want DEUTZ's (ETR:DEZ) Growth In ROCE To Persist</t>
+          <t>A2Z Cust2Mate to Host Investor Virtual Meeting on Tuesday, December 16, 2025</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>https://finance.yahoo.com/news/investors-want-deutzs-etr-dez-061901998.html</t>
+          <t>https://finance.yahoo.com/news/a2z-cust2mate-host-investor-virtual-183000417.html</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Simply Wall St.</t>
+          <t>ACCESS Newswire</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -1277,29 +1277,29 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>0.4404</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45997</v>
+        <v>46001</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>45997.26208333333</v>
+        <v>46001.77083333334</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Invesco (IVZ) Valuation Check After 2026 Investment Outlook and Strategic Asset Allocation Shift</t>
+          <t>Altria Declares Regular Quarterly Dividend of $1.06 Per Share</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>https://finance.yahoo.com/news/invesco-ivz-valuation-check-2026-061724714.html</t>
+          <t>https://finance.yahoo.com/news/altria-declares-regular-quarterly-dividend-183000365.html</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Simply Wall St.</t>
+          <t>Business Wire</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -1308,29 +1308,29 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>0.3612</v>
+        <v>0.296</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45997</v>
+        <v>46001</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>45997.26189814815</v>
+        <v>46001.77083333334</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Quantum Computing (QUBT): Reassessing Valuation After First Profit, Cybersecurity Win, and New AI Partnerships</t>
+          <t>What 10 Years and 600 Studies Tell Us About Sustainable Business Success</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>https://finance.yahoo.com/news/quantum-computing-qubt-reassessing-valuation-061708995.html</t>
+          <t>https://finance.yahoo.com/news/10-years-600-studies-tell-183000749.html</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Simply Wall St.</t>
+          <t>ACCESS Newswire</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -1339,29 +1339,29 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>0.7717000000000001</v>
+        <v>0.5719</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45997</v>
+        <v>46001</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>45997.26155092593</v>
+        <v>46001.77083333334</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Is Himax (HIMX) Quietly Reframing Its Core Story Around AI-Driven Health Displays?</t>
+          <t>Carrick Therapeutics Announces Positive Results from Phase 2 Randomized Trial of Samuraciclib in Combination with Fulvestrant in Patients with Hormone Receptor Positive, HER2 Negative Advanced Breast Cancer</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>https://finance.yahoo.com/news/himax-himx-quietly-reframing-core-061638559.html</t>
+          <t>https://finance.yahoo.com/news/carrick-therapeutics-announces-positive-results-183000909.html</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Simply Wall St.</t>
+          <t>GlobeNewswire</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -1370,29 +1370,29 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>0.0258</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45997</v>
+        <v>45995</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>45997.26140046296</v>
+        <v>45995.67222222222</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Does Ramaco Resources (METC) Brook Mine Pivot Clarify Its Strategy or Deepen Technology Uncertainty?</t>
+          <t>ETFs to Keep Your Portfolio on Track in the Long Term</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>https://finance.yahoo.com/news/does-ramaco-resources-metc-brook-061625886.html</t>
+          <t>https://finance.yahoo.com/news/etfs-keep-portfolio-track-long-160800229.html</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Simply Wall St.</t>
+          <t>Zacks</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -1401,7 +1401,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>-0.34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -1409,21 +1409,21 @@
         <v>45995</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>45995.67222222222</v>
+        <v>45995.65972222222</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>ETFs to Keep Your Portfolio on Track in the Long Term</t>
+          <t>Here's Why This ETF Is a Multimillionaire Maker</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>https://finance.yahoo.com/news/etfs-keep-portfolio-track-long-160800229.html</t>
+          <t>https://finance.yahoo.com/m/41bb49e9-5c08-38ac-8d89-c0d326db1a26/here%27s-why-this-etf-is-a.html</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Zacks</t>
+          <t>Motley Fool</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -1437,19 +1437,19 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45995</v>
+        <v>45985</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>45995.65972222222</v>
+        <v>45985.34375</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Here's Why This ETF Is a Multimillionaire Maker</t>
+          <t>If I Could Choose Only 1 ETF to Buy and Hold Forever, This Would Be It</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>https://finance.yahoo.com/m/41bb49e9-5c08-38ac-8d89-c0d326db1a26/here%27s-why-this-etf-is-a.html</t>
+          <t>https://finance.yahoo.com/m/d1fdddb9-c08d-33c4-a6a5-23354a1e8a76/if-i-could-choose-only-1-etf.html</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1468,19 +1468,19 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45985</v>
+        <v>45984</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>45985.34375</v>
+        <v>45984.86805555555</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>If I Could Choose Only 1 ETF to Buy and Hold Forever, This Would Be It</t>
+          <t>Here's How Many Shares of the Vanguard Total Stock Market ETF (VTI) You'd Need for $500 in Yearly Dividends</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>https://finance.yahoo.com/m/d1fdddb9-c08d-33c4-a6a5-23354a1e8a76/if-i-could-choose-only-1-etf.html</t>
+          <t>https://finance.yahoo.com/m/34c30e63-4b19-3dde-83ca-9034e11f82ce/here%27s-how-many-shares-of-the.html</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -1494,29 +1494,29 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>0.296</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>45984</v>
+        <v>45983</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>45984.86805555555</v>
+        <v>45983.18337962963</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Here's How Many Shares of the Vanguard Total Stock Market ETF (VTI) You'd Need for $500 in Yearly Dividends</t>
+          <t>Buy These 4 ETFs if You Want to be Rich in 2026, According to John Liang</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>https://finance.yahoo.com/m/34c30e63-4b19-3dde-83ca-9034e11f82ce/here%27s-how-many-shares-of-the.html</t>
+          <t>https://finance.yahoo.com/news/buy-4-etfs-want-rich-042404092.html</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Motley Fool</t>
+          <t>GOBankingRates</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -1525,29 +1525,29 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>0.296</v>
+        <v>0.5994</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>45983</v>
+        <v>45980</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>45983.18337962963</v>
+        <v>45980.98965277777</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Buy These 4 ETFs if You Want to be Rich in 2026, According to John Liang</t>
+          <t>Two Paths to the Total US Market: Vanguard’s Total Stock Market ETF vs. iShares’ Core S&amp;P Total US Stock Market ETF</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>https://finance.yahoo.com/news/buy-4-etfs-want-rich-042404092.html</t>
+          <t>https://finance.yahoo.com/m/7dd78558-e7d1-32b6-95bf-8247fbbeb672/two-paths-to-the-total-us.html</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>GOBankingRates</t>
+          <t>Motley Fool</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -1556,7 +1556,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>0.5994</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1564,21 +1564,21 @@
         <v>45980</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>45980.98965277777</v>
+        <v>45980.875625</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Two Paths to the Total US Market: Vanguard’s Total Stock Market ETF vs. iShares’ Core S&amp;P Total US Stock Market ETF</t>
+          <t>The Clear Winner for Building Long Term Wealth, QQQ or VTI?</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>https://finance.yahoo.com/m/7dd78558-e7d1-32b6-95bf-8247fbbeb672/two-paths-to-the-total-us.html</t>
+          <t>https://finance.yahoo.com/m/794b4311-7b64-3873-aae3-e5bc37477c25/the-clear-winner-for-building.html</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Motley Fool</t>
+          <t>24/7 Wall St.</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -1587,29 +1587,29 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>0.8625</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>45980</v>
+        <v>45978</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>45980.875625</v>
+        <v>45978.46458333333</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>The Clear Winner for Building Long Term Wealth, QQQ or VTI?</t>
+          <t>This 16% Difference Could Make the Vanguard Total Stock Market ETF Outperform the S&amp;P 500 During a Stock Market Sell-Off</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>https://finance.yahoo.com/m/794b4311-7b64-3873-aae3-e5bc37477c25/the-clear-winner-for-building.html</t>
+          <t>https://finance.yahoo.com/m/ab16c17e-e4d2-381d-8e3d-987a9323e2f0/this-16%25-difference-could.html</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>24/7 Wall St.</t>
+          <t>Motley Fool</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -1618,29 +1618,29 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>0.8625</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>45978</v>
+        <v>45975</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>45978.46458333333</v>
+        <v>45975.65974537037</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>This 16% Difference Could Make the Vanguard Total Stock Market ETF Outperform the S&amp;P 500 During a Stock Market Sell-Off</t>
+          <t>Stop Panicking and Look at the Charts: What Barchart’s Technical Indicators Are Telling Us Now</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>https://finance.yahoo.com/m/ab16c17e-e4d2-381d-8e3d-987a9323e2f0/this-16%25-difference-could.html</t>
+          <t>https://finance.yahoo.com/m/df3960f4-aac8-328e-b3fa-0e8a83a609ed/stop-panicking-and-look-at.html</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Motley Fool</t>
+          <t>Barchart</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -1649,29 +1649,29 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>-0.6249</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>45975</v>
+        <v>45960</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>45975.65974537037</v>
+        <v>45960.36111111111</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Stop Panicking and Look at the Charts: What Barchart’s Technical Indicators Are Telling Us Now</t>
+          <t>The Best Vanguard ETF to Invest $2,000 in Right Now</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>https://finance.yahoo.com/m/df3960f4-aac8-328e-b3fa-0e8a83a609ed/stop-panicking-and-look-at.html</t>
+          <t>https://finance.yahoo.com/m/3925f7af-f7bb-37c6-825f-3b46e1186c96/the-best-vanguard-etf-to.html</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Barchart</t>
+          <t>Motley Fool</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -1680,38 +1680,317 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>-0.6249</v>
+        <v>0.6369</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>45960</v>
+        <v>46001</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>45960.36111111111</v>
+        <v>46001.77708333333</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>The Best Vanguard ETF to Invest $2,000 in Right Now</t>
+          <t>Photonic Sets New Standard with Distributed Quantum Resource Estimation</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>https://finance.yahoo.com/m/3925f7af-f7bb-37c6-825f-3b46e1186c96/the-best-vanguard-etf-to.html</t>
+          <t>https://finance.yahoo.com/news/photonic-sets-standard-distributed-quantum-183900917.html</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
+          <t>GlobeNewswire</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Yahoo_Search</t>
+        </is>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>46001</v>
+      </c>
+      <c r="B42" s="2" t="n">
+        <v>46001.7769212963</v>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Athene exec reveals the 2 mistakes retirees make — and the kicker that could eviscerate savings</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>https://finance.yahoo.com/news/athene-exec-reveals-the-2-mistakes-retirees-make--and-the-kicker-that-could-eviscerate-savings-183846206.html</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Yahoo Finance</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Yahoo_Search</t>
+        </is>
+      </c>
+      <c r="G42" t="n">
+        <v>-0.3612</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>46001</v>
+      </c>
+      <c r="B43" s="2" t="n">
+        <v>46001.77638888889</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>31 Japanese Startups to Exhibit at CES 2026 Japan Pavilion Including 4 Innovation Award Winners</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>https://finance.yahoo.com/news/31-japanese-startups-exhibit-ces-183800738.html</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Business Wire</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Yahoo_Search</t>
+        </is>
+      </c>
+      <c r="G43" t="n">
+        <v>0.8481</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>46001</v>
+      </c>
+      <c r="B44" s="2" t="n">
+        <v>46001.77569444444</v>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>2 Cruise Line Stocks Are Moving in Different Directions</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>https://finance.yahoo.com/m/654ead26-dbc7-307e-8491-137b3cf276c3/2-cruise-line-stocks-are.html</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
           <t>Motley Fool</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>Yahoo_Search</t>
-        </is>
-      </c>
-      <c r="G41" t="n">
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Yahoo_Search</t>
+        </is>
+      </c>
+      <c r="G44" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>46001</v>
+      </c>
+      <c r="B45" s="2" t="n">
+        <v>46001.775</v>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>AltaSea Taps LA City &amp; LAEDC Veteran to Join Leadership Team</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>https://finance.yahoo.com/news/altasea-taps-la-city-laedc-183600829.html</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>Business Wire</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Yahoo_Search</t>
+        </is>
+      </c>
+      <c r="G45" t="n">
+        <v>0.296</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>46001</v>
+      </c>
+      <c r="B46" s="2" t="n">
+        <v>46001.775</v>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Tickets Now on Sale for 2026 International Fireworks Championship in Las Vegas</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>https://finance.yahoo.com/news/tickets-now-sale-2026-international-183600777.html</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>Business Wire</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Yahoo_Search</t>
+        </is>
+      </c>
+      <c r="G46" t="n">
+        <v>0.4404</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>46001</v>
+      </c>
+      <c r="B47" s="2" t="n">
+        <v>46001.77494212963</v>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>These Are The 5 Best Stocks To Buy Now Or Watch</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>https://finance.yahoo.com/m/5f695c14-bc91-363c-995e-e994c1f0807e/these-are-the-5-best-stocks.html</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>Investor's Business Daily</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Yahoo_Search</t>
+        </is>
+      </c>
+      <c r="G47" t="n">
         <v>0.6369</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46001</v>
+      </c>
+      <c r="B48" s="2" t="n">
+        <v>46001.77490740741</v>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Ethereum Has Bottomed, Says BitMine Chairman Tom Lee—Here's Why</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>https://finance.yahoo.com/m/bcc9efc5-87f0-3f66-b601-094b802d156b/ethereum-has-bottomed%2C-says.html</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>decrypt</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Yahoo_Search</t>
+        </is>
+      </c>
+      <c r="G48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>46001</v>
+      </c>
+      <c r="B49" s="2" t="n">
+        <v>46001.77430555555</v>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Three new Bachelors of the Politecnico di Milano, delivered entirely in English, in three cities</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>https://finance.yahoo.com/news/three-bachelors-politecnico-di-milano-183500230.html</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>GlobeNewswire</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Yahoo_Search</t>
+        </is>
+      </c>
+      <c r="G49" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>46001</v>
+      </c>
+      <c r="B50" s="2" t="n">
+        <v>46001.77430555555</v>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Mimeo Ltd. Acquires KnowledgePoint Print Services Ltd, Strengthening Its Leadership Position in Training Materials and Learning Fulfillment</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>https://finance.yahoo.com/news/mimeo-ltd-acquires-knowledgepoint-print-183500341.html</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>PR Newswire</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Yahoo_Search</t>
+        </is>
+      </c>
+      <c r="G50" t="n">
+        <v>0.4939</v>
       </c>
     </row>
   </sheetData>
